--- a/raw/result/全國投開票所一覽表/區域立委/區域立委-A05-2-得票數一覽表(苗栗縣).xlsx
+++ b/raw/result/全國投開票所一覽表/區域立委/區域立委-A05-2-得票數一覽表(苗栗縣).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="714">
   <si>
     <t>第11屆區域立法委員選舉苗栗縣第1選舉區候選人在各投開票所得票數一覽表</t>
   </si>
@@ -1149,9 +1149,6 @@
     <t xml:space="preserve">　頭份市</t>
   </si>
   <si>
-    <t>72.35</t>
-  </si>
-  <si>
     <t>流東里</t>
   </si>
   <si>
@@ -1276,9 +1273,6 @@
   </si>
   <si>
     <t>69.78</t>
-  </si>
-  <si>
-    <t>70.54</t>
   </si>
   <si>
     <t>和平里</t>
@@ -12275,13 +12269,13 @@
         <v>161860.0</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>5213.0</v>
+        <v>5225.0</v>
       </c>
       <c r="H6" s="8" t="n">
-        <v>167073.0</v>
+        <v>167085.0</v>
       </c>
       <c r="I6" s="8" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="J6" s="8" t="n">
         <v>167089.0</v>
@@ -12316,13 +12310,13 @@
         <v>58996.0</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>1852.0</v>
+        <v>1864.0</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>60848.0</v>
+        <v>60860.0</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="J7" s="8" t="n">
         <v>60863.0</v>
@@ -12334,7 +12328,7 @@
         <v>84106.0</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
@@ -12342,7 +12336,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>229.0</v>
@@ -12375,7 +12369,7 @@
         <v>1046.0</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9">
@@ -12383,7 +12377,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>230.0</v>
@@ -12416,7 +12410,7 @@
         <v>1013.0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10">
@@ -12424,7 +12418,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>231.0</v>
@@ -12457,7 +12451,7 @@
         <v>823.0</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11">
@@ -12465,7 +12459,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>232.0</v>
@@ -12498,7 +12492,7 @@
         <v>802.0</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12">
@@ -12506,7 +12500,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>233.0</v>
@@ -12539,7 +12533,7 @@
         <v>1309.0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13">
@@ -12547,7 +12541,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>234.0</v>
@@ -12580,7 +12574,7 @@
         <v>1358.0</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14">
@@ -12588,7 +12582,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>235.0</v>
@@ -12621,7 +12615,7 @@
         <v>1134.0</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15">
@@ -12629,7 +12623,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>236.0</v>
@@ -12662,7 +12656,7 @@
         <v>958.0</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16">
@@ -12670,7 +12664,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>237.0</v>
@@ -12711,7 +12705,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>238.0</v>
@@ -12744,7 +12738,7 @@
         <v>888.0</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18">
@@ -12752,7 +12746,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>239.0</v>
@@ -12785,7 +12779,7 @@
         <v>1189.0</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19">
@@ -12793,7 +12787,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>240.0</v>
@@ -12826,7 +12820,7 @@
         <v>1392.0</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20">
@@ -12834,7 +12828,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>241.0</v>
@@ -12867,7 +12861,7 @@
         <v>940.0</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21">
@@ -12875,7 +12869,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>242.0</v>
@@ -12908,7 +12902,7 @@
         <v>1276.0</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22">
@@ -12916,7 +12910,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>243.0</v>
@@ -12949,7 +12943,7 @@
         <v>1172.0</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23">
@@ -12957,7 +12951,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>244.0</v>
@@ -12998,7 +12992,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>245.0</v>
@@ -13031,7 +13025,7 @@
         <v>1037.0</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25">
@@ -13039,7 +13033,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>246.0</v>
@@ -13072,7 +13066,7 @@
         <v>1019.0</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26">
@@ -13080,7 +13074,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>247.0</v>
@@ -13113,7 +13107,7 @@
         <v>1116.0</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27">
@@ -13121,7 +13115,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>248.0</v>
@@ -13154,7 +13148,7 @@
         <v>975.0</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28">
@@ -13162,7 +13156,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>249.0</v>
@@ -13195,7 +13189,7 @@
         <v>1052.0</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29">
@@ -13203,7 +13197,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>250.0</v>
@@ -13236,7 +13230,7 @@
         <v>918.0</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30">
@@ -13244,7 +13238,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>251.0</v>
@@ -13277,7 +13271,7 @@
         <v>880.0</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31">
@@ -13285,7 +13279,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>252.0</v>
@@ -13318,7 +13312,7 @@
         <v>992.0</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32">
@@ -13326,7 +13320,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>253.0</v>
@@ -13359,7 +13353,7 @@
         <v>1003.0</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33">
@@ -13367,7 +13361,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>254.0</v>
@@ -13400,7 +13394,7 @@
         <v>700.0</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34">
@@ -13408,7 +13402,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>255.0</v>
@@ -13441,7 +13435,7 @@
         <v>774.0</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35">
@@ -13449,7 +13443,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>256.0</v>
@@ -13482,7 +13476,7 @@
         <v>1036.0</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36">
@@ -13490,7 +13484,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>257.0</v>
@@ -13523,7 +13517,7 @@
         <v>1094.0</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37">
@@ -13531,7 +13525,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>258.0</v>
@@ -13564,7 +13558,7 @@
         <v>1135.0</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38">
@@ -13572,7 +13566,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>259.0</v>
@@ -13587,13 +13581,13 @@
         <v>877.0</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="H38" s="8" t="n">
-        <v>886.0</v>
+        <v>898.0</v>
       </c>
       <c r="I38" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="J38" s="8" t="n">
         <v>898.0</v>
@@ -13605,7 +13599,7 @@
         <v>1256.0</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>416</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39">
@@ -13613,7 +13607,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>260.0</v>
@@ -13654,7 +13648,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>261.0</v>
@@ -13687,7 +13681,7 @@
         <v>1227.0</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41">
@@ -13695,7 +13689,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>262.0</v>
@@ -13728,7 +13722,7 @@
         <v>1430.0</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42">
@@ -13736,7 +13730,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>263.0</v>
@@ -13769,7 +13763,7 @@
         <v>1316.0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43">
@@ -13777,7 +13771,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>264.0</v>
@@ -13810,7 +13804,7 @@
         <v>1158.0</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44">
@@ -13818,7 +13812,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>265.0</v>
@@ -13859,7 +13853,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>266.0</v>
@@ -13892,7 +13886,7 @@
         <v>1301.0</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46">
@@ -13900,7 +13894,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>267.0</v>
@@ -13933,7 +13927,7 @@
         <v>1180.0</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47">
@@ -13941,7 +13935,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>268.0</v>
@@ -13974,7 +13968,7 @@
         <v>1180.0</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48">
@@ -13982,7 +13976,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>269.0</v>
@@ -14015,7 +14009,7 @@
         <v>1299.0</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49">
@@ -14023,7 +14017,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>270.0</v>
@@ -14056,7 +14050,7 @@
         <v>1050.0</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
@@ -14064,7 +14058,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>271.0</v>
@@ -14097,7 +14091,7 @@
         <v>1086.0</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
@@ -14105,7 +14099,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>272.0</v>
@@ -14138,7 +14132,7 @@
         <v>1382.0</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52">
@@ -14146,7 +14140,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>273.0</v>
@@ -14187,7 +14181,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>274.0</v>
@@ -14220,7 +14214,7 @@
         <v>1381.0</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54">
@@ -14228,7 +14222,7 @@
         <v>16</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>275.0</v>
@@ -14261,7 +14255,7 @@
         <v>1125.0</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55">
@@ -14269,7 +14263,7 @@
         <v>16</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>276.0</v>
@@ -14302,7 +14296,7 @@
         <v>1095.0</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56">
@@ -14310,7 +14304,7 @@
         <v>16</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>277.0</v>
@@ -14343,7 +14337,7 @@
         <v>1023.0</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57">
@@ -14351,7 +14345,7 @@
         <v>16</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>278.0</v>
@@ -14392,7 +14386,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>279.0</v>
@@ -14425,7 +14419,7 @@
         <v>1070.0</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59">
@@ -14433,7 +14427,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>280.0</v>
@@ -14466,7 +14460,7 @@
         <v>996.0</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60">
@@ -14474,7 +14468,7 @@
         <v>16</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>281.0</v>
@@ -14515,7 +14509,7 @@
         <v>16</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>282.0</v>
@@ -14548,7 +14542,7 @@
         <v>1256.0</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62">
@@ -14556,7 +14550,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>283.0</v>
@@ -14589,7 +14583,7 @@
         <v>1113.0</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63">
@@ -14597,7 +14591,7 @@
         <v>16</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>284.0</v>
@@ -14630,7 +14624,7 @@
         <v>966.0</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64">
@@ -14638,7 +14632,7 @@
         <v>16</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>285.0</v>
@@ -14671,7 +14665,7 @@
         <v>1015.0</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65">
@@ -14679,7 +14673,7 @@
         <v>16</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>286.0</v>
@@ -14712,7 +14706,7 @@
         <v>1143.0</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66">
@@ -14720,7 +14714,7 @@
         <v>16</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>287.0</v>
@@ -14761,7 +14755,7 @@
         <v>16</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>288.0</v>
@@ -14794,7 +14788,7 @@
         <v>1149.0</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68">
@@ -14802,7 +14796,7 @@
         <v>16</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>289.0</v>
@@ -14835,7 +14829,7 @@
         <v>1228.0</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69">
@@ -14843,7 +14837,7 @@
         <v>16</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>290.0</v>
@@ -14876,7 +14870,7 @@
         <v>1198.0</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70">
@@ -14884,7 +14878,7 @@
         <v>16</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>291.0</v>
@@ -14917,7 +14911,7 @@
         <v>1207.0</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71">
@@ -14925,7 +14919,7 @@
         <v>16</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C71" s="6" t="n">
         <v>292.0</v>
@@ -14958,7 +14952,7 @@
         <v>1213.0</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72">
@@ -14966,7 +14960,7 @@
         <v>16</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C72" s="6" t="n">
         <v>293.0</v>
@@ -14999,7 +14993,7 @@
         <v>1316.0</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73">
@@ -15007,7 +15001,7 @@
         <v>16</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C73" s="6" t="n">
         <v>294.0</v>
@@ -15040,7 +15034,7 @@
         <v>1347.0</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74">
@@ -15048,7 +15042,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C74" s="6" t="n">
         <v>295.0</v>
@@ -15081,7 +15075,7 @@
         <v>1175.0</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75">
@@ -15089,7 +15083,7 @@
         <v>16</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C75" s="6" t="n">
         <v>296.0</v>
@@ -15122,7 +15116,7 @@
         <v>1117.0</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76">
@@ -15130,7 +15124,7 @@
         <v>16</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>297.0</v>
@@ -15171,7 +15165,7 @@
         <v>16</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C77" s="6" t="n">
         <v>298.0</v>
@@ -15204,7 +15198,7 @@
         <v>1209.0</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78">
@@ -15212,7 +15206,7 @@
         <v>16</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>299.0</v>
@@ -15245,7 +15239,7 @@
         <v>844.0</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79">
@@ -15253,7 +15247,7 @@
         <v>16</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>300.0</v>
@@ -15294,7 +15288,7 @@
         <v>16</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>301.0</v>
@@ -15327,7 +15321,7 @@
         <v>1167.0</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81">
@@ -15335,7 +15329,7 @@
         <v>16</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>302.0</v>
@@ -15368,7 +15362,7 @@
         <v>1001.0</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82">
@@ -15376,7 +15370,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>303.0</v>
@@ -15409,12 +15403,12 @@
         <v>1061.0</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>16</v>
@@ -15450,7 +15444,7 @@
         <v>5283.0</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84">
@@ -15458,7 +15452,7 @@
         <v>16</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>304.0</v>
@@ -15499,7 +15493,7 @@
         <v>16</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>305.0</v>
@@ -15532,7 +15526,7 @@
         <v>1123.0</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86">
@@ -15540,7 +15534,7 @@
         <v>16</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>306.0</v>
@@ -15573,7 +15567,7 @@
         <v>593.0</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87">
@@ -15581,7 +15575,7 @@
         <v>16</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>307.0</v>
@@ -15622,7 +15616,7 @@
         <v>16</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C88" s="6" t="n">
         <v>308.0</v>
@@ -15663,7 +15657,7 @@
         <v>16</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>309.0</v>
@@ -15704,7 +15698,7 @@
         <v>16</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>310.0</v>
@@ -15737,7 +15731,7 @@
         <v>503.0</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91">
@@ -15745,7 +15739,7 @@
         <v>16</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C91" s="6" t="n">
         <v>311.0</v>
@@ -15778,7 +15772,7 @@
         <v>366.0</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92">
@@ -15786,7 +15780,7 @@
         <v>16</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>312.0</v>
@@ -15824,7 +15818,7 @@
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>16</v>
@@ -15860,7 +15854,7 @@
         <v>6322.0</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94">
@@ -15868,7 +15862,7 @@
         <v>16</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>313.0</v>
@@ -15909,7 +15903,7 @@
         <v>16</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>314.0</v>
@@ -15942,7 +15936,7 @@
         <v>537.0</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96">
@@ -15950,7 +15944,7 @@
         <v>16</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C96" s="6" t="n">
         <v>315.0</v>
@@ -15983,7 +15977,7 @@
         <v>867.0</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97">
@@ -15991,7 +15985,7 @@
         <v>16</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C97" s="6" t="n">
         <v>316.0</v>
@@ -16024,7 +16018,7 @@
         <v>709.0</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98">
@@ -16032,7 +16026,7 @@
         <v>16</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>317.0</v>
@@ -16065,7 +16059,7 @@
         <v>700.0</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99">
@@ -16073,7 +16067,7 @@
         <v>16</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C99" s="6" t="n">
         <v>318.0</v>
@@ -16114,7 +16108,7 @@
         <v>16</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>319.0</v>
@@ -16155,7 +16149,7 @@
         <v>16</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>320.0</v>
@@ -16188,7 +16182,7 @@
         <v>395.0</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102">
@@ -16196,7 +16190,7 @@
         <v>16</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>321.0</v>
@@ -16229,12 +16223,12 @@
         <v>238.0</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>16</v>
@@ -16270,7 +16264,7 @@
         <v>71249.0</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104">
@@ -16278,7 +16272,7 @@
         <v>16</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>322.0</v>
@@ -16311,7 +16305,7 @@
         <v>1118.0</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105">
@@ -16319,7 +16313,7 @@
         <v>16</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>323.0</v>
@@ -16360,7 +16354,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C106" s="6" t="n">
         <v>324.0</v>
@@ -16393,7 +16387,7 @@
         <v>1037.0</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107">
@@ -16401,7 +16395,7 @@
         <v>16</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>325.0</v>
@@ -16434,7 +16428,7 @@
         <v>1034.0</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108">
@@ -16442,7 +16436,7 @@
         <v>16</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C108" s="6" t="n">
         <v>326.0</v>
@@ -16475,7 +16469,7 @@
         <v>1037.0</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109">
@@ -16483,7 +16477,7 @@
         <v>16</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>327.0</v>
@@ -16516,7 +16510,7 @@
         <v>1145.0</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110">
@@ -16524,7 +16518,7 @@
         <v>16</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C110" s="6" t="n">
         <v>328.0</v>
@@ -16557,7 +16551,7 @@
         <v>1206.0</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111">
@@ -16565,7 +16559,7 @@
         <v>16</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C111" s="6" t="n">
         <v>329.0</v>
@@ -16606,7 +16600,7 @@
         <v>16</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>330.0</v>
@@ -16639,7 +16633,7 @@
         <v>1105.0</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113">
@@ -16647,7 +16641,7 @@
         <v>16</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>331.0</v>
@@ -16680,7 +16674,7 @@
         <v>1020.0</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114">
@@ -16688,7 +16682,7 @@
         <v>16</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>332.0</v>
@@ -16729,7 +16723,7 @@
         <v>16</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C115" s="6" t="n">
         <v>333.0</v>
@@ -16770,7 +16764,7 @@
         <v>16</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>334.0</v>
@@ -16803,7 +16797,7 @@
         <v>1206.0</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117">
@@ -16811,7 +16805,7 @@
         <v>16</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C117" s="6" t="n">
         <v>335.0</v>
@@ -16852,7 +16846,7 @@
         <v>16</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C118" s="6" t="n">
         <v>336.0</v>
@@ -16885,7 +16879,7 @@
         <v>1003.0</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119">
@@ -16893,7 +16887,7 @@
         <v>16</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C119" s="6" t="n">
         <v>337.0</v>
@@ -16926,7 +16920,7 @@
         <v>987.0</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="120">
@@ -16934,7 +16928,7 @@
         <v>16</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C120" s="6" t="n">
         <v>338.0</v>
@@ -16967,7 +16961,7 @@
         <v>1078.0</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121">
@@ -16975,7 +16969,7 @@
         <v>16</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C121" s="6" t="n">
         <v>339.0</v>
@@ -17008,7 +17002,7 @@
         <v>784.0</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122">
@@ -17016,7 +17010,7 @@
         <v>16</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C122" s="6" t="n">
         <v>340.0</v>
@@ -17057,7 +17051,7 @@
         <v>16</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>341.0</v>
@@ -17098,7 +17092,7 @@
         <v>16</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C124" s="6" t="n">
         <v>342.0</v>
@@ -17131,7 +17125,7 @@
         <v>1275.0</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125">
@@ -17139,7 +17133,7 @@
         <v>16</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C125" s="6" t="n">
         <v>343.0</v>
@@ -17180,7 +17174,7 @@
         <v>16</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>344.0</v>
@@ -17213,7 +17207,7 @@
         <v>1147.0</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="127">
@@ -17221,7 +17215,7 @@
         <v>16</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C127" s="6" t="n">
         <v>345.0</v>
@@ -17254,7 +17248,7 @@
         <v>1135.0</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128">
@@ -17262,7 +17256,7 @@
         <v>16</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C128" s="6" t="n">
         <v>346.0</v>
@@ -17295,7 +17289,7 @@
         <v>1077.0</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="129">
@@ -17303,7 +17297,7 @@
         <v>16</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C129" s="6" t="n">
         <v>347.0</v>
@@ -17336,7 +17330,7 @@
         <v>738.0</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130">
@@ -17344,7 +17338,7 @@
         <v>16</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C130" s="6" t="n">
         <v>348.0</v>
@@ -17377,7 +17371,7 @@
         <v>718.0</v>
       </c>
       <c r="M130" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131">
@@ -17385,7 +17379,7 @@
         <v>16</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C131" s="6" t="n">
         <v>349.0</v>
@@ -17418,7 +17412,7 @@
         <v>948.0</v>
       </c>
       <c r="M131" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="132">
@@ -17426,7 +17420,7 @@
         <v>16</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C132" s="6" t="n">
         <v>350.0</v>
@@ -17459,7 +17453,7 @@
         <v>1052.0</v>
       </c>
       <c r="M132" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133">
@@ -17467,7 +17461,7 @@
         <v>16</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C133" s="6" t="n">
         <v>351.0</v>
@@ -17508,7 +17502,7 @@
         <v>16</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C134" s="6" t="n">
         <v>352.0</v>
@@ -17549,7 +17543,7 @@
         <v>16</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C135" s="6" t="n">
         <v>353.0</v>
@@ -17582,7 +17576,7 @@
         <v>926.0</v>
       </c>
       <c r="M135" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136">
@@ -17590,7 +17584,7 @@
         <v>16</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C136" s="6" t="n">
         <v>354.0</v>
@@ -17623,7 +17617,7 @@
         <v>1096.0</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="137">
@@ -17631,7 +17625,7 @@
         <v>16</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C137" s="6" t="n">
         <v>355.0</v>
@@ -17664,7 +17658,7 @@
         <v>1339.0</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="138">
@@ -17672,7 +17666,7 @@
         <v>16</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C138" s="6" t="n">
         <v>356.0</v>
@@ -17705,7 +17699,7 @@
         <v>1224.0</v>
       </c>
       <c r="M138" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="139">
@@ -17713,7 +17707,7 @@
         <v>16</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C139" s="6" t="n">
         <v>357.0</v>
@@ -17746,7 +17740,7 @@
         <v>1221.0</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="140">
@@ -17754,7 +17748,7 @@
         <v>16</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C140" s="6" t="n">
         <v>358.0</v>
@@ -17787,7 +17781,7 @@
         <v>1147.0</v>
       </c>
       <c r="M140" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141">
@@ -17795,7 +17789,7 @@
         <v>16</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C141" s="6" t="n">
         <v>359.0</v>
@@ -17828,7 +17822,7 @@
         <v>1013.0</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="142">
@@ -17836,7 +17830,7 @@
         <v>16</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C142" s="6" t="n">
         <v>360.0</v>
@@ -17869,7 +17863,7 @@
         <v>1105.0</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="143">
@@ -17877,7 +17871,7 @@
         <v>16</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C143" s="6" t="n">
         <v>361.0</v>
@@ -17910,7 +17904,7 @@
         <v>1049.0</v>
       </c>
       <c r="M143" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="144">
@@ -17918,7 +17912,7 @@
         <v>16</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C144" s="6" t="n">
         <v>362.0</v>
@@ -17959,7 +17953,7 @@
         <v>16</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C145" s="6" t="n">
         <v>363.0</v>
@@ -17992,7 +17986,7 @@
         <v>946.0</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146">
@@ -18000,7 +17994,7 @@
         <v>16</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C146" s="6" t="n">
         <v>364.0</v>
@@ -18033,7 +18027,7 @@
         <v>987.0</v>
       </c>
       <c r="M146" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="147">
@@ -18041,7 +18035,7 @@
         <v>16</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C147" s="6" t="n">
         <v>365.0</v>
@@ -18074,7 +18068,7 @@
         <v>1305.0</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148">
@@ -18082,7 +18076,7 @@
         <v>16</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C148" s="6" t="n">
         <v>366.0</v>
@@ -18115,7 +18109,7 @@
         <v>1043.0</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="149">
@@ -18123,7 +18117,7 @@
         <v>16</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C149" s="6" t="n">
         <v>367.0</v>
@@ -18164,7 +18158,7 @@
         <v>16</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C150" s="6" t="n">
         <v>368.0</v>
@@ -18197,7 +18191,7 @@
         <v>969.0</v>
       </c>
       <c r="M150" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="151">
@@ -18205,7 +18199,7 @@
         <v>16</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C151" s="6" t="n">
         <v>369.0</v>
@@ -18238,7 +18232,7 @@
         <v>799.0</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="152">
@@ -18246,7 +18240,7 @@
         <v>16</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C152" s="6" t="n">
         <v>370.0</v>
@@ -18279,7 +18273,7 @@
         <v>919.0</v>
       </c>
       <c r="M152" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="153">
@@ -18287,7 +18281,7 @@
         <v>16</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C153" s="6" t="n">
         <v>371.0</v>
@@ -18328,7 +18322,7 @@
         <v>16</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C154" s="6" t="n">
         <v>372.0</v>
@@ -18361,7 +18355,7 @@
         <v>959.0</v>
       </c>
       <c r="M154" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="155">
@@ -18369,7 +18363,7 @@
         <v>16</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C155" s="6" t="n">
         <v>373.0</v>
@@ -18402,7 +18396,7 @@
         <v>1008.0</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="156">
@@ -18410,7 +18404,7 @@
         <v>16</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C156" s="6" t="n">
         <v>374.0</v>
@@ -18443,7 +18437,7 @@
         <v>981.0</v>
       </c>
       <c r="M156" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="157">
@@ -18451,7 +18445,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C157" s="6" t="n">
         <v>375.0</v>
@@ -18492,7 +18486,7 @@
         <v>16</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C158" s="6" t="n">
         <v>376.0</v>
@@ -18533,7 +18527,7 @@
         <v>16</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C159" s="6" t="n">
         <v>377.0</v>
@@ -18566,7 +18560,7 @@
         <v>1322.0</v>
       </c>
       <c r="M159" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160">
@@ -18574,7 +18568,7 @@
         <v>16</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C160" s="6" t="n">
         <v>378.0</v>
@@ -18607,7 +18601,7 @@
         <v>1568.0</v>
       </c>
       <c r="M160" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="161">
@@ -18615,7 +18609,7 @@
         <v>16</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C161" s="6" t="n">
         <v>379.0</v>
@@ -18648,7 +18642,7 @@
         <v>1110.0</v>
       </c>
       <c r="M161" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162">
@@ -18656,7 +18650,7 @@
         <v>16</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C162" s="6" t="n">
         <v>380.0</v>
@@ -18689,7 +18683,7 @@
         <v>1044.0</v>
       </c>
       <c r="M162" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="163">
@@ -18697,7 +18691,7 @@
         <v>16</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C163" s="6" t="n">
         <v>381.0</v>
@@ -18730,7 +18724,7 @@
         <v>1024.0</v>
       </c>
       <c r="M163" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="164">
@@ -18738,7 +18732,7 @@
         <v>16</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C164" s="6" t="n">
         <v>382.0</v>
@@ -18779,7 +18773,7 @@
         <v>16</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C165" s="6" t="n">
         <v>383.0</v>
@@ -18812,7 +18806,7 @@
         <v>1244.0</v>
       </c>
       <c r="M165" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="166">
@@ -18820,7 +18814,7 @@
         <v>16</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C166" s="6" t="n">
         <v>384.0</v>
@@ -18853,7 +18847,7 @@
         <v>1362.0</v>
       </c>
       <c r="M166" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167">
@@ -18861,7 +18855,7 @@
         <v>16</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C167" s="6" t="n">
         <v>385.0</v>
@@ -18894,7 +18888,7 @@
         <v>872.0</v>
       </c>
       <c r="M167" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="168">
@@ -18902,7 +18896,7 @@
         <v>16</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C168" s="6" t="n">
         <v>386.0</v>
@@ -18935,7 +18929,7 @@
         <v>1108.0</v>
       </c>
       <c r="M168" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169">
@@ -18976,7 +18970,7 @@
         <v>984.0</v>
       </c>
       <c r="M169" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170">
@@ -19017,7 +19011,7 @@
         <v>825.0</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="171">
@@ -19025,7 +19019,7 @@
         <v>16</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C171" s="6" t="n">
         <v>389.0</v>
@@ -19058,7 +19052,7 @@
         <v>741.0</v>
       </c>
       <c r="M171" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172">
@@ -19066,7 +19060,7 @@
         <v>16</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C172" s="6" t="n">
         <v>390.0</v>
@@ -19099,12 +19093,12 @@
         <v>822.0</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>16</v>
@@ -19148,7 +19142,7 @@
         <v>16</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C174" s="6" t="n">
         <v>391.0</v>
@@ -19181,7 +19175,7 @@
         <v>1328.0</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="175">
@@ -19189,7 +19183,7 @@
         <v>16</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C175" s="6" t="n">
         <v>392.0</v>
@@ -19222,7 +19216,7 @@
         <v>1090.0</v>
       </c>
       <c r="M175" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="176">
@@ -19230,7 +19224,7 @@
         <v>16</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C176" s="6" t="n">
         <v>393.0</v>
@@ -19263,7 +19257,7 @@
         <v>733.0</v>
       </c>
       <c r="M176" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="177">
@@ -19271,7 +19265,7 @@
         <v>16</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C177" s="6" t="n">
         <v>394.0</v>
@@ -19304,7 +19298,7 @@
         <v>836.0</v>
       </c>
       <c r="M177" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178">
@@ -19312,7 +19306,7 @@
         <v>16</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C178" s="6" t="n">
         <v>395.0</v>
@@ -19345,7 +19339,7 @@
         <v>633.0</v>
       </c>
       <c r="M178" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="179">
@@ -19353,7 +19347,7 @@
         <v>16</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C179" s="6" t="n">
         <v>396.0</v>
@@ -19386,7 +19380,7 @@
         <v>811.0</v>
       </c>
       <c r="M179" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="180">
@@ -19394,7 +19388,7 @@
         <v>16</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C180" s="6" t="n">
         <v>397.0</v>
@@ -19435,7 +19429,7 @@
         <v>16</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C181" s="6" t="n">
         <v>398.0</v>
@@ -19476,7 +19470,7 @@
         <v>16</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C182" s="6" t="n">
         <v>399.0</v>
@@ -19509,7 +19503,7 @@
         <v>926.0</v>
       </c>
       <c r="M182" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="183">
@@ -19517,7 +19511,7 @@
         <v>16</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C183" s="6" t="n">
         <v>400.0</v>
@@ -19550,7 +19544,7 @@
         <v>700.0</v>
       </c>
       <c r="M183" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="184">
@@ -19558,7 +19552,7 @@
         <v>16</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C184" s="6" t="n">
         <v>401.0</v>
@@ -19599,7 +19593,7 @@
         <v>16</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C185" s="6" t="n">
         <v>402.0</v>
@@ -19632,12 +19626,12 @@
         <v>288.0</v>
       </c>
       <c r="M185" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>16</v>
@@ -19673,7 +19667,7 @@
         <v>3649.0</v>
       </c>
       <c r="M186" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="187">
@@ -19681,7 +19675,7 @@
         <v>16</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C187" s="6" t="n">
         <v>403.0</v>
@@ -19714,7 +19708,7 @@
         <v>227.0</v>
       </c>
       <c r="M187" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="188">
@@ -19722,7 +19716,7 @@
         <v>16</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C188" s="6" t="n">
         <v>404.0</v>
@@ -19755,7 +19749,7 @@
         <v>503.0</v>
       </c>
       <c r="M188" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="189">
@@ -19763,7 +19757,7 @@
         <v>16</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C189" s="6" t="n">
         <v>405.0</v>
@@ -19796,7 +19790,7 @@
         <v>876.0</v>
       </c>
       <c r="M189" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190">
@@ -19804,7 +19798,7 @@
         <v>16</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C190" s="6" t="n">
         <v>406.0</v>
@@ -19837,7 +19831,7 @@
         <v>530.0</v>
       </c>
       <c r="M190" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="191">
@@ -19845,7 +19839,7 @@
         <v>16</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C191" s="6" t="n">
         <v>407.0</v>
@@ -19878,7 +19872,7 @@
         <v>554.0</v>
       </c>
       <c r="M191" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="192">
@@ -19886,7 +19880,7 @@
         <v>16</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C192" s="6" t="n">
         <v>408.0</v>
@@ -19927,7 +19921,7 @@
         <v>16</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C193" s="6" t="n">
         <v>409.0</v>
@@ -19960,12 +19954,12 @@
         <v>648.0</v>
       </c>
       <c r="M193" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>16</v>
@@ -20001,7 +19995,7 @@
         <v>26618.0</v>
       </c>
       <c r="M194" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="195">
@@ -20009,7 +20003,7 @@
         <v>16</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C195" s="6" t="n">
         <v>410.0</v>
@@ -20042,7 +20036,7 @@
         <v>709.0</v>
       </c>
       <c r="M195" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="196">
@@ -20050,7 +20044,7 @@
         <v>16</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C196" s="6" t="n">
         <v>411.0</v>
@@ -20083,7 +20077,7 @@
         <v>739.0</v>
       </c>
       <c r="M196" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="197">
@@ -20091,7 +20085,7 @@
         <v>16</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C197" s="6" t="n">
         <v>412.0</v>
@@ -20124,7 +20118,7 @@
         <v>1043.0</v>
       </c>
       <c r="M197" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="198">
@@ -20132,7 +20126,7 @@
         <v>16</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C198" s="6" t="n">
         <v>413.0</v>
@@ -20173,7 +20167,7 @@
         <v>16</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C199" s="6" t="n">
         <v>414.0</v>
@@ -20206,7 +20200,7 @@
         <v>1122.0</v>
       </c>
       <c r="M199" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200">
@@ -20214,7 +20208,7 @@
         <v>16</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C200" s="6" t="n">
         <v>415.0</v>
@@ -20255,7 +20249,7 @@
         <v>16</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C201" s="6" t="n">
         <v>416.0</v>
@@ -20296,7 +20290,7 @@
         <v>16</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C202" s="6" t="n">
         <v>417.0</v>
@@ -20329,7 +20323,7 @@
         <v>1124.0</v>
       </c>
       <c r="M202" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203">
@@ -20337,7 +20331,7 @@
         <v>16</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C203" s="6" t="n">
         <v>418.0</v>
@@ -20378,7 +20372,7 @@
         <v>16</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C204" s="6" t="n">
         <v>419.0</v>
@@ -20411,7 +20405,7 @@
         <v>1283.0</v>
       </c>
       <c r="M204" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="205">
@@ -20419,7 +20413,7 @@
         <v>16</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C205" s="6" t="n">
         <v>420.0</v>
@@ -20460,7 +20454,7 @@
         <v>16</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C206" s="6" t="n">
         <v>421.0</v>
@@ -20501,7 +20495,7 @@
         <v>16</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C207" s="6" t="n">
         <v>422.0</v>
@@ -20534,7 +20528,7 @@
         <v>932.0</v>
       </c>
       <c r="M207" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208">
@@ -20542,7 +20536,7 @@
         <v>16</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C208" s="6" t="n">
         <v>423.0</v>
@@ -20575,7 +20569,7 @@
         <v>318.0</v>
       </c>
       <c r="M208" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="209">
@@ -20583,7 +20577,7 @@
         <v>16</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C209" s="6" t="n">
         <v>424.0</v>
@@ -20616,7 +20610,7 @@
         <v>774.0</v>
       </c>
       <c r="M209" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="210">
@@ -20624,7 +20618,7 @@
         <v>16</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C210" s="6" t="n">
         <v>425.0</v>
@@ -20657,7 +20651,7 @@
         <v>1170.0</v>
       </c>
       <c r="M210" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211">
@@ -20665,7 +20659,7 @@
         <v>16</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C211" s="6" t="n">
         <v>426.0</v>
@@ -20698,7 +20692,7 @@
         <v>633.0</v>
       </c>
       <c r="M211" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="212">
@@ -20706,7 +20700,7 @@
         <v>16</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C212" s="6" t="n">
         <v>427.0</v>
@@ -20739,7 +20733,7 @@
         <v>720.0</v>
       </c>
       <c r="M212" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="213">
@@ -20747,7 +20741,7 @@
         <v>16</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C213" s="6" t="n">
         <v>428.0</v>
@@ -20788,7 +20782,7 @@
         <v>16</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C214" s="6" t="n">
         <v>429.0</v>
@@ -20821,7 +20815,7 @@
         <v>1234.0</v>
       </c>
       <c r="M214" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="215">
@@ -20829,7 +20823,7 @@
         <v>16</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C215" s="6" t="n">
         <v>430.0</v>
@@ -20870,7 +20864,7 @@
         <v>16</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C216" s="6" t="n">
         <v>431.0</v>
@@ -20903,7 +20897,7 @@
         <v>690.0</v>
       </c>
       <c r="M216" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="217">
@@ -20911,7 +20905,7 @@
         <v>16</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C217" s="6" t="n">
         <v>432.0</v>
@@ -20944,7 +20938,7 @@
         <v>696.0</v>
       </c>
       <c r="M217" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="218">
@@ -20952,7 +20946,7 @@
         <v>16</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C218" s="6" t="n">
         <v>433.0</v>
@@ -20985,7 +20979,7 @@
         <v>852.0</v>
       </c>
       <c r="M218" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="219">
@@ -20993,7 +20987,7 @@
         <v>16</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C219" s="6" t="n">
         <v>434.0</v>
@@ -21026,7 +21020,7 @@
         <v>683.0</v>
       </c>
       <c r="M219" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="220">
@@ -21034,7 +21028,7 @@
         <v>16</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C220" s="6" t="n">
         <v>435.0</v>
@@ -21067,7 +21061,7 @@
         <v>642.0</v>
       </c>
       <c r="M220" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="221">
@@ -21075,7 +21069,7 @@
         <v>16</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C221" s="6" t="n">
         <v>436.0</v>
@@ -21108,7 +21102,7 @@
         <v>722.0</v>
       </c>
       <c r="M221" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="222">
@@ -21116,7 +21110,7 @@
         <v>16</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C222" s="6" t="n">
         <v>437.0</v>
@@ -21149,7 +21143,7 @@
         <v>658.0</v>
       </c>
       <c r="M222" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="223">
@@ -21157,7 +21151,7 @@
         <v>16</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C223" s="6" t="n">
         <v>438.0</v>
@@ -21190,7 +21184,7 @@
         <v>682.0</v>
       </c>
       <c r="M223" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="224">
@@ -21198,7 +21192,7 @@
         <v>16</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C224" s="6" t="n">
         <v>439.0</v>
@@ -21239,7 +21233,7 @@
         <v>16</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C225" s="6" t="n">
         <v>440.0</v>
@@ -21272,7 +21266,7 @@
         <v>211.0</v>
       </c>
       <c r="M225" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="226">
@@ -21280,7 +21274,7 @@
         <v>16</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C226" s="6" t="n">
         <v>441.0</v>
@@ -21313,12 +21307,12 @@
         <v>306.0</v>
       </c>
       <c r="M226" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>16</v>
@@ -21354,7 +21348,7 @@
         <v>11280.0</v>
       </c>
       <c r="M227" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="228">
@@ -21362,7 +21356,7 @@
         <v>16</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C228" s="6" t="n">
         <v>442.0</v>
@@ -21403,7 +21397,7 @@
         <v>16</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C229" s="6" t="n">
         <v>443.0</v>
@@ -21436,7 +21430,7 @@
         <v>811.0</v>
       </c>
       <c r="M229" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="230">
@@ -21444,7 +21438,7 @@
         <v>16</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C230" s="6" t="n">
         <v>444.0</v>
@@ -21485,7 +21479,7 @@
         <v>16</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C231" s="6" t="n">
         <v>445.0</v>
@@ -21518,7 +21512,7 @@
         <v>1088.0</v>
       </c>
       <c r="M231" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="232">
@@ -21526,7 +21520,7 @@
         <v>16</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C232" s="6" t="n">
         <v>446.0</v>
@@ -21559,7 +21553,7 @@
         <v>764.0</v>
       </c>
       <c r="M232" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="233">
@@ -21567,7 +21561,7 @@
         <v>16</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C233" s="6" t="n">
         <v>447.0</v>
@@ -21600,7 +21594,7 @@
         <v>799.0</v>
       </c>
       <c r="M233" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="234">
@@ -21608,7 +21602,7 @@
         <v>16</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C234" s="6" t="n">
         <v>448.0</v>
@@ -21641,7 +21635,7 @@
         <v>1221.0</v>
       </c>
       <c r="M234" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="235">
@@ -21649,7 +21643,7 @@
         <v>16</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C235" s="6" t="n">
         <v>449.0</v>
@@ -21682,7 +21676,7 @@
         <v>485.0</v>
       </c>
       <c r="M235" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="236">
@@ -21690,7 +21684,7 @@
         <v>16</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C236" s="6" t="n">
         <v>450.0</v>
@@ -21731,7 +21725,7 @@
         <v>16</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C237" s="6" t="n">
         <v>451.0</v>
@@ -21764,7 +21758,7 @@
         <v>679.0</v>
       </c>
       <c r="M237" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="238">
@@ -21772,7 +21766,7 @@
         <v>16</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C238" s="6" t="n">
         <v>452.0</v>
@@ -21805,7 +21799,7 @@
         <v>457.0</v>
       </c>
       <c r="M238" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="239">
@@ -21813,7 +21807,7 @@
         <v>16</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C239" s="6" t="n">
         <v>453.0</v>
@@ -21846,7 +21840,7 @@
         <v>560.0</v>
       </c>
       <c r="M239" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="240">
@@ -21854,7 +21848,7 @@
         <v>16</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C240" s="6" t="n">
         <v>454.0</v>
@@ -21887,7 +21881,7 @@
         <v>802.0</v>
       </c>
       <c r="M240" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="241">
@@ -21895,7 +21889,7 @@
         <v>16</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C241" s="6" t="n">
         <v>455.0</v>
@@ -21928,7 +21922,7 @@
         <v>921.0</v>
       </c>
       <c r="M241" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="242">
@@ -21936,7 +21930,7 @@
         <v>16</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C242" s="6" t="n">
         <v>456.0</v>
@@ -21969,12 +21963,12 @@
         <v>938.0</v>
       </c>
       <c r="M242" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>16</v>
@@ -22010,7 +22004,7 @@
         <v>1403.0</v>
       </c>
       <c r="M243" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="244">
@@ -22018,7 +22012,7 @@
         <v>16</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C244" s="6" t="n">
         <v>457.0</v>
@@ -22051,7 +22045,7 @@
         <v>142.0</v>
       </c>
       <c r="M244" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="245">
@@ -22092,7 +22086,7 @@
         <v>175.0</v>
       </c>
       <c r="M245" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="246">
@@ -22133,7 +22127,7 @@
         <v>160.0</v>
       </c>
       <c r="M246" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="247">
@@ -22141,7 +22135,7 @@
         <v>16</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C247" s="6" t="n">
         <v>460.0</v>
@@ -22182,7 +22176,7 @@
         <v>16</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C248" s="6" t="n">
         <v>461.0</v>
@@ -22215,7 +22209,7 @@
         <v>276.0</v>
       </c>
       <c r="M248" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="249">
@@ -22223,7 +22217,7 @@
         <v>16</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C249" s="6" t="n">
         <v>462.0</v>
@@ -22256,7 +22250,7 @@
         <v>85.0</v>
       </c>
       <c r="M249" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="250">
@@ -22264,7 +22258,7 @@
         <v>16</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C250" s="6" t="n">
         <v>463.0</v>
@@ -22297,7 +22291,7 @@
         <v>147.0</v>
       </c>
       <c r="M250" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="251">
@@ -22305,7 +22299,7 @@
         <v>16</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C251" s="6" t="n">
         <v>464.0</v>
@@ -22338,7 +22332,7 @@
         <v>26.0</v>
       </c>
       <c r="M251" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="252">
@@ -22346,7 +22340,7 @@
         <v>16</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C252" s="6" t="n">
         <v>465.0</v>
@@ -22379,7 +22373,7 @@
         <v>38.0</v>
       </c>
       <c r="M252" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="253">
@@ -22387,7 +22381,7 @@
         <v>16</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C253" s="6" t="n">
         <v>466.0</v>
@@ -22420,12 +22414,12 @@
         <v>39.0</v>
       </c>
       <c r="M253" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>16</v>
@@ -22469,7 +22463,7 @@
         <v>16</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C255" s="6" t="n">
         <v>467.0</v>
@@ -22502,7 +22496,7 @@
         <v>859.0</v>
       </c>
       <c r="M255" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="256">
@@ -22510,7 +22504,7 @@
         <v>16</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C256" s="6" t="n">
         <v>468.0</v>
@@ -22543,7 +22537,7 @@
         <v>885.0</v>
       </c>
       <c r="M256" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="257">
@@ -22551,7 +22545,7 @@
         <v>16</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C257" s="6" t="n">
         <v>469.0</v>
@@ -22584,7 +22578,7 @@
         <v>992.0</v>
       </c>
       <c r="M257" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="258">
@@ -22592,7 +22586,7 @@
         <v>16</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C258" s="6" t="n">
         <v>470.0</v>
@@ -22625,7 +22619,7 @@
         <v>646.0</v>
       </c>
       <c r="M258" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="259">
@@ -22633,7 +22627,7 @@
         <v>16</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C259" s="6" t="n">
         <v>471.0</v>
@@ -22674,7 +22668,7 @@
         <v>16</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C260" s="6" t="n">
         <v>472.0</v>
@@ -22707,7 +22701,7 @@
         <v>684.0</v>
       </c>
       <c r="M260" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="261">
@@ -22715,7 +22709,7 @@
         <v>16</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C261" s="6" t="n">
         <v>473.0</v>
@@ -22748,7 +22742,7 @@
         <v>856.0</v>
       </c>
       <c r="M261" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="262">
@@ -22756,7 +22750,7 @@
         <v>16</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C262" s="6" t="n">
         <v>474.0</v>
@@ -22789,7 +22783,7 @@
         <v>731.0</v>
       </c>
       <c r="M262" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="263">
@@ -22797,7 +22791,7 @@
         <v>16</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C263" s="6" t="n">
         <v>475.0</v>
@@ -22830,7 +22824,7 @@
         <v>653.0</v>
       </c>
       <c r="M263" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="264">
@@ -22838,7 +22832,7 @@
         <v>16</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C264" s="6" t="n">
         <v>476.0</v>
@@ -22871,7 +22865,7 @@
         <v>792.0</v>
       </c>
       <c r="M264" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="265">
@@ -22879,7 +22873,7 @@
         <v>16</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C265" s="6" t="n">
         <v>477.0</v>
@@ -22912,7 +22906,7 @@
         <v>734.0</v>
       </c>
       <c r="M265" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="266">
@@ -22920,7 +22914,7 @@
         <v>16</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C266" s="6" t="n">
         <v>478.0</v>
@@ -22953,7 +22947,7 @@
         <v>346.0</v>
       </c>
       <c r="M266" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="267">
@@ -22961,7 +22955,7 @@
         <v>16</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C267" s="6" t="n">
         <v>479.0</v>
@@ -22994,7 +22988,7 @@
         <v>563.0</v>
       </c>
       <c r="M267" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="268">
@@ -23002,7 +22996,7 @@
         <v>16</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C268" s="6" t="n">
         <v>480.0</v>
@@ -23035,7 +23029,7 @@
         <v>698.0</v>
       </c>
       <c r="M268" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="269">
@@ -23043,7 +23037,7 @@
         <v>16</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C269" s="6" t="n">
         <v>481.0</v>
@@ -23084,7 +23078,7 @@
         <v>16</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C270" s="6" t="n">
         <v>482.0</v>
@@ -23117,7 +23111,7 @@
         <v>1013.0</v>
       </c>
       <c r="M270" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="271">
@@ -23125,7 +23119,7 @@
         <v>16</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C271" s="6" t="n">
         <v>483.0</v>
@@ -23158,7 +23152,7 @@
         <v>596.0</v>
       </c>
       <c r="M271" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="272">
@@ -23166,7 +23160,7 @@
         <v>16</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C272" s="6" t="n">
         <v>484.0</v>
@@ -23199,7 +23193,7 @@
         <v>909.0</v>
       </c>
       <c r="M272" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
